--- a/DIO-Imposto.xlsx
+++ b/DIO-Imposto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianamoraes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianamoraes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78B0EA2-B156-4C40-B1D8-4EA16E4F3023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93959C80-F21A-4DDC-A10C-BE1F332E2924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="494" activeTab="3" xr2:uid="{F5690B98-4C6A-412B-BA67-D127E3F0F6FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" activeTab="3" xr2:uid="{F5690B98-4C6A-412B-BA67-D127E3F0F6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -545,27 +545,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,6 +569,33 @@
     <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,9 +605,6 @@
     <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4028,270 +4028,257 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="1" max="4" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="4" spans="7:18" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="8" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="20" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="21">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="22">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="15">
         <v>32907</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="24" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="23">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="16">
         <v>2020202020</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="25">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="18">
         <v>101010100</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="26">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="19">
         <v>10101010</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="34" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="19" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="20" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="19" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
     <mergeCell ref="A1:D1048576"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:R6"/>
@@ -4308,6 +4295,19 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:P18 L20:P20" xr:uid="{7AA104B3-6789-4BC1-B018-AD7F8667F5E8}">
@@ -4339,7 +4339,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="1" max="4" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="4" spans="7:18" ht="18.75" x14ac:dyDescent="0.4">
@@ -4348,34 +4348,34 @@
       </c>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
@@ -4395,19 +4395,19 @@
       <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="31">
         <f>L12+L17+L26</f>
         <v>518000</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
@@ -4418,50 +4418,50 @@
       </c>
     </row>
     <row r="11" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="20" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="27">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="29">
         <v>20000</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="15" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G15" s="4" t="s">
@@ -4469,50 +4469,50 @@
       </c>
     </row>
     <row r="16" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="20" t="s">
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="30">
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28">
         <v>-2000</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="4" t="s">
@@ -4520,59 +4520,54 @@
       </c>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="20" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="30">
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28">
         <v>500000</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
     <mergeCell ref="A1:D1048576"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="L11:P11"/>
@@ -4589,6 +4584,11 @@
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="L27:P27"/>
     <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -4883,13 +4883,13 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A4:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="1" max="4" width="9.140625" style="21"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
@@ -4900,32 +4900,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="8" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G8" s="5" t="s">
@@ -5229,7 +5229,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="1" max="4" width="9.140625" style="21"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5243,34 +5243,34 @@
       </c>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="9" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H9" s="11" t="s">
